--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.800000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.800000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227520632218279e-27</v>
+        <v>6.430210444747628e-28</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.223943377092715e-27</v>
+        <v>6.503052374826511e-28</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.220582408005796e-27</v>
+        <v>6.571076442583675e-28</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.217469472026921e-27</v>
+        <v>6.63490033746014e-28</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.214636316225487e-27</v>
+        <v>6.695141748896924e-28</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.212114687670895e-27</v>
+        <v>6.75241836633505e-28</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.209936333432543e-27</v>
+        <v>6.80734787921554e-28</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.208133000579829e-27</v>
+        <v>6.860547976979412e-28</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.206736436182153e-27</v>
+        <v>6.912636349067689e-28</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.205778387308912e-27</v>
+        <v>6.964230684921393e-28</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.205290601029507e-27</v>
+        <v>7.015948673981517e-28</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.205304824413336e-27</v>
+        <v>7.068408005689133e-28</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.205852804529796e-27</v>
+        <v>7.122226369485238e-28</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.206966288448288e-27</v>
+        <v>7.178021454810853e-28</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.208677023238211e-27</v>
+        <v>7.236410951106994e-28</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.211016755968962e-27</v>
+        <v>7.298012547814691e-28</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.214017233709941e-27</v>
+        <v>7.363443934374956e-28</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.217710203530546e-27</v>
+        <v>7.433322800228814e-28</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.222127412500176e-27</v>
+        <v>7.508266834817287e-28</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.227300607688231e-27</v>
+        <v>7.588893727581395e-28</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.233261536164108e-27</v>
+        <v>7.675821167962158e-28</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.240041944997208e-27</v>
+        <v>7.769666845400599e-28</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.247673581256927e-27</v>
+        <v>7.871048449337737e-28</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.256188192012665e-27</v>
+        <v>7.980583669214591e-28</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>1.265617524333822e-27</v>
+        <v>8.098890194472187e-28</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>1.275993325289796e-27</v>
+        <v>8.226585714551542e-28</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.287347341949985e-27</v>
+        <v>8.364287918893679e-28</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.299711321383788e-27</v>
+        <v>8.51261449693962e-28</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>1.313117010660597e-27</v>
+        <v>8.6721831381303e-28</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>1.327596156849826e-27</v>
+        <v>8.843611531906901e-28</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>1.343180507020864e-27</v>
+        <v>9.027517367710366e-28</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.359901808243112e-27</v>
+        <v>9.224518334981716e-28</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.377791807585969e-27</v>
+        <v>9.435232123161974e-28</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.396882252118832e-27</v>
+        <v>9.660276421692159e-28</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.417204888911101e-27</v>
+        <v>9.900268920013289e-28</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.438791465032175e-27</v>
+        <v>1.015582730756639e-27</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.461673727551453e-27</v>
+        <v>1.042756927379249e-27</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>1.485883423538332e-27</v>
+        <v>1.071611250813259e-27</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>1.511452300062212e-27</v>
+        <v>1.102207470002773e-27</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>1.538412104192493e-27</v>
+        <v>1.134607353891892e-27</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>1.566794582998572e-27</v>
+        <v>1.168872671424719e-27</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>1.596631483549848e-27</v>
+        <v>1.205065191545354e-27</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>1.627954552915721e-27</v>
+        <v>1.243246683197902e-27</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>1.660795538165588e-27</v>
+        <v>1.283478915326463e-27</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>1.695186186368849e-27</v>
+        <v>1.32582365687514e-27</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>1.731158244594903e-27</v>
+        <v>1.370342676788035e-27</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>1.768743459913148e-27</v>
+        <v>1.41709774400925e-27</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>1.807974585848641e-27</v>
+        <v>1.466151409624853e-27</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>1.849129622153503e-27</v>
+        <v>1.517756811725017e-27</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>1.893050296288372e-27</v>
+        <v>1.572605175364024e-27</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>1.940657244608692e-27</v>
+        <v>1.631449047680652e-27</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>1.992871103469912e-27</v>
+        <v>1.695040975813683e-27</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>2.050612509227477e-27</v>
+        <v>1.764133506901897e-27</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>2.114802098236836e-27</v>
+        <v>1.839479188084076e-27</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>2.186360506853434e-27</v>
+        <v>1.921830566498997e-27</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>2.266208371432719e-27</v>
+        <v>2.011940189285443e-27</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>2.355266328330138e-27</v>
+        <v>2.110560603582194e-27</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>2.454455013901139e-27</v>
+        <v>2.218444356528029e-27</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>2.564695064501167e-27</v>
+        <v>2.336343995261731e-27</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>2.686907116485669e-27</v>
+        <v>2.465012066922078e-27</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.822011806210093e-27</v>
+        <v>2.605201118647852e-27</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.970929770029886e-27</v>
+        <v>2.757663697577832e-27</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>3.134581644300495e-27</v>
+        <v>2.9231523508508e-27</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>3.313888065377366e-27</v>
+        <v>3.102419625605536e-27</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>3.509769669615948e-27</v>
+        <v>3.296218068980819e-27</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>3.723147093371577e-27</v>
+        <v>3.505300228115327e-27</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>3.955263021736024e-27</v>
+        <v>3.730772929146553e-27</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>4.210811220964875e-27</v>
+        <v>3.977539459559015e-27</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>4.496580407268169e-27</v>
+        <v>4.252807716942976e-27</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>4.819388751175365e-27</v>
+        <v>4.563818000962103e-27</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>5.186054423215927e-27</v>
+        <v>4.917810611280067e-27</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>5.603395593919312e-27</v>
+        <v>5.322025847560533e-27</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>6.078230433814983e-27</v>
+        <v>5.783704009467171e-27</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>6.6173771134324e-27</v>
+        <v>6.310085396663648e-27</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>7.227653803301024e-27</v>
+        <v>6.908410308813631e-27</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>7.91587867395032e-27</v>
+        <v>7.585919045580792e-27</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>8.688869895909738e-27</v>
+        <v>8.34985190662879e-27</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>9.553445639708754e-27</v>
+        <v>9.207449191621305e-27</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>1.051642407587682e-26</v>
+        <v>1.0165951200222e-26</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>1.158462337494339e-26</v>
+        <v>1.123259823209453e-26</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>1.27630161006491e-26</v>
+        <v>1.241274280084361e-26</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>1.403569894722806e-26</v>
+        <v>1.369038445601808e-26</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>1.537357037715088e-26</v>
+        <v>1.503602288464086e-26</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>1.674732070379371e-26</v>
+        <v>1.641994486762663e-26</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>1.812764024053204e-26</v>
+        <v>1.781243718588945e-26</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.948521930074338e-26</v>
+        <v>1.91837866203454e-26</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>2.07907481978032e-26</v>
+        <v>2.050427995190849e-26</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>2.201491724508768e-26</v>
+        <v>2.174420396149343e-26</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>2.312841675597295e-26</v>
+        <v>2.287384543001495e-26</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>2.410193704383518e-26</v>
+        <v>2.386349113838773e-26</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>2.490616842205053e-26</v>
+        <v>2.46834278675265e-26</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>2.551180120399515e-26</v>
+        <v>2.530394239834596e-26</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>2.588952570304519e-26</v>
+        <v>2.569532151176082e-26</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>2.601003223257681e-26</v>
+        <v>2.58278519886858e-26</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>2.584687383565026e-26</v>
+        <v>2.567471317606837e-26</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>2.540781463640576e-26</v>
+        <v>2.524365206153359e-26</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>2.47231411136949e-26</v>
+        <v>2.456517272310815e-26</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>2.382353589679297e-26</v>
+        <v>2.367017951805777e-26</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>2.273968161497527e-26</v>
+        <v>2.258957680364817e-26</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>2.150226089751711e-26</v>
+        <v>2.135426893714507e-26</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>2.014195637369377e-26</v>
+        <v>1.99951602758142e-26</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.868945067278056e-26</v>
+        <v>1.854315517692128e-26</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.717542642405352e-26</v>
+        <v>1.702915799773276e-26</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>1.563056625678647e-26</v>
+        <v>1.548407309551289e-26</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>1.408555280025542e-26</v>
+        <v>1.393880482752813e-26</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>1.257106868373568e-26</v>
+        <v>1.242425755104419e-26</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>1.111779653650254e-26</v>
+        <v>1.097133562332677e-26</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>9.756418987831307e-27</v>
+        <v>9.610943401641633e-27</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>8.517618666997274e-27</v>
+        <v>8.373985243254474e-27</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>7.429848750261199e-27</v>
+        <v>7.289086379797641e-27</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>6.490248490477043e-27</v>
+        <v>6.352860439585216e-27</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>5.672856649646839e-27</v>
+        <v>5.538305876939767e-27</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>4.951173025957082e-27</v>
+        <v>4.817870174156428e-27</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>4.301510489559923e-27</v>
+        <v>4.167040070176473e-27</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>3.716418811126133e-27</v>
+        <v>3.578844730305031e-27</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>3.194260643685457e-27</v>
+        <v>3.052593586245808e-27</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>2.733406022144951e-27</v>
+        <v>2.587604045118692e-27</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>2.332211090488612e-27</v>
+        <v>2.183174603902632e-27</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>1.98796162505042e-27</v>
+        <v>1.837146635162358e-27</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.696131525018385e-27</v>
+        <v>1.544894947357384e-27</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.452019491425365e-27</v>
+        <v>1.301555846308248e-27</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.250924225304308e-27</v>
+        <v>1.102265637835579e-27</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>1.088144427687879e-27</v>
+        <v>9.421606277597264e-28</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>9.589787996090434e-28</v>
+        <v>8.163771219013365e-28</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>8.587260421006611e-28</v>
+        <v>7.20051426080951e-28</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>7.826848561955906e-28</v>
+        <v>6.483198461191102e-28</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>7.261539429266902e-28</v>
+        <v>5.963186878363546e-28</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>6.844320033268186e-28</v>
+        <v>5.591842570532249e-28</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>6.528177384288347e-28</v>
+        <v>5.32052859590262e-28</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>6.266098492655972e-28</v>
+        <v>5.100608012680062e-28</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>6.011070368699648e-28</v>
+        <v>4.883443879069983e-28</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>5.716094735731026e-28</v>
+        <v>4.620415149287208e-28</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>5.354530654477225e-28</v>
+        <v>4.284894986733887e-28</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>4.960495142356999e-28</v>
+        <v>3.91589987456453e-28</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>4.57939047661116e-28</v>
+        <v>3.564638969277611e-28</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>4.256618934480519e-28</v>
+        <v>3.282321427371607e-28</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>4.036177081325892e-28</v>
+        <v>3.118465332937791e-28</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>3.932602347507289e-28</v>
+        <v>3.08714940937863e-28</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>3.932485525158451e-28</v>
+        <v>3.168832554120245e-28</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>4.021314457347905e-28</v>
+        <v>3.342646816066445e-28</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>4.18457698714433e-28</v>
+        <v>3.587724244121322e-28</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>4.40776095761629e-28</v>
+        <v>3.883196887188724e-28</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>4.676354211832374e-28</v>
+        <v>4.208196794172564e-28</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>4.975844592861169e-28</v>
+        <v>4.541856013976756e-28</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>5.291719943771267e-28</v>
+        <v>4.863306595505216e-28</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>5.60947035487783e-28</v>
+        <v>5.151684323692484e-28</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>5.919514128243772e-28</v>
+        <v>5.3943180986421e-28</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>6.227647474272091e-28</v>
+        <v>5.604102478050613e-28</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>6.542657688562433e-28</v>
+        <v>5.798904676381517e-28</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>6.873332066714444e-28</v>
+        <v>5.996591908098317e-28</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>7.228457904327766e-28</v>
+        <v>6.215031387664507e-28</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>7.616822497002047e-28</v>
+        <v>6.472090329543591e-28</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>8.04721314033693e-28</v>
+        <v>6.785635948199065e-28</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>8.528417129932061e-28</v>
+        <v>7.173535458094431e-28</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>9.069221761387085e-28</v>
+        <v>7.653656073693187e-28</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>9.679764385752115e-28</v>
+        <v>8.24379878904161e-28</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.037915752271196e-27</v>
+        <v>8.961324364852253e-28</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>1.119017504233308e-27</v>
+        <v>9.823413972066165e-28</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>1.213560161512555e-27</v>
+        <v>1.084724825186104e-27</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>1.323822191159886e-27</v>
+        <v>1.205000784541396e-27</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>1.452082060226416e-27</v>
+        <v>1.34488733939038e-27</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>1.600618235763099e-27</v>
+        <v>1.50610255385077e-27</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.771709184820944e-27</v>
+        <v>1.690364492040339e-27</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.967633374450959e-27</v>
+        <v>1.899391218076855e-27</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>2.190669271704151e-27</v>
+        <v>2.134900796078091e-27</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>2.443095343631524e-27</v>
+        <v>2.398611290161816e-27</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>2.727190057284088e-27</v>
+        <v>2.692240764445801e-27</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>3.045231879712849e-27</v>
+        <v>3.017507283047816e-27</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>3.399497071401335e-27</v>
+        <v>3.376126880122754e-27</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>3.789208817973352e-27</v>
+        <v>3.767006870543523e-27</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>4.204478180695899e-27</v>
+        <v>4.180671741851003e-27</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>4.633723723317999e-27</v>
+        <v>4.606088944621086e-27</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>5.065364009588683e-27</v>
+        <v>5.032225929429674e-27</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>5.487817603256976e-27</v>
+        <v>5.448050146852659e-27</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>5.88950306807191e-27</v>
+        <v>5.842529047465944e-27</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>6.258838967782507e-27</v>
+        <v>6.204630081845423e-27</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>6.584243866137653e-27</v>
+        <v>6.523320700566854e-27</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>6.85413632688669e-27</v>
+        <v>6.787568354206442e-27</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>7.057086265813928e-27</v>
+        <v>6.986484310178786e-27</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>7.188253001778397e-27</v>
+        <v>7.115441179641801e-27</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>7.251787875976762e-27</v>
+        <v>7.178355920208633e-27</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>7.25248871047408e-27</v>
+        <v>7.179759784732006e-27</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>7.195153327335409e-27</v>
+        <v>7.124184026064642e-27</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>7.084579548625798e-27</v>
+        <v>7.016159897059262e-27</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>6.925565196410304e-27</v>
+        <v>6.860218650568585e-27</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>6.722908092753981e-27</v>
+        <v>6.660891539445335e-27</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>6.481406059721884e-27</v>
+        <v>6.422709816542234e-27</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>6.205857473243851e-27</v>
+        <v>6.150205410937246e-27</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>5.901412676834264e-27</v>
+        <v>5.848339976384238e-27</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>5.574176819672861e-27</v>
+        <v>5.523240909089301e-27</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>5.230415400971573e-27</v>
+        <v>5.181231380007789e-27</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>4.876393919942337e-27</v>
+        <v>4.828634560095067e-27</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>4.518377875797092e-27</v>
+        <v>4.4717736203065e-27</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>4.162632767747768e-27</v>
+        <v>4.116971731597446e-27</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>3.815424095006301e-27</v>
+        <v>3.770552064923267e-27</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>3.483017356784628e-27</v>
+        <v>3.438837791239328e-27</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>3.171678052294825e-27</v>
+        <v>3.128152081501131e-27</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>2.886744560755431e-27</v>
+        <v>2.843883883977761e-27</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>2.628245362331163e-27</v>
+        <v>2.586071568595395e-27</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>2.394321852848099e-27</v>
+        <v>2.352851963934284e-27</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>2.183113163731832e-27</v>
+        <v>2.142359616826555e-27</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.992758426407951e-27</v>
+        <v>1.952729074104335e-27</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.821396772302049e-27</v>
+        <v>1.782094882599749e-27</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.667167332839717e-27</v>
+        <v>1.628591589144924e-27</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.528209239446547e-27</v>
+        <v>1.490353740571988e-27</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.402661623548128e-27</v>
+        <v>1.365515883713064e-27</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.28868348245536e-27</v>
+        <v>1.252232504957168e-27</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.185036308531962e-27</v>
+        <v>1.14926282006704e-27</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.091178141745221e-27</v>
+        <v>1.056065175518777e-27</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>1.006605822619665e-27</v>
+        <v>9.721368622355283e-28</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>9.308161916798215e-28</v>
+        <v>8.9697517114044e-28</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>8.633060894502194e-28</v>
+        <v>8.300773931566594e-28</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>8.035723564553858e-28</v>
+        <v>7.709408192073327e-28</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>7.51111833219873e-28</v>
+        <v>7.190627402156306e-28</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>7.054213602681577e-28</v>
+        <v>6.739404471046496e-28</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>6.659977781247954e-28</v>
+        <v>6.350712307975633e-28</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>6.323379273143137e-28</v>
+        <v>6.019523822175189e-28</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>6.039386483612408e-28</v>
+        <v>5.740811922876628e-28</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>5.802967817901045e-28</v>
+        <v>5.509549519311418e-28</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>5.609091681254327e-28</v>
+        <v>5.320709520711028e-28</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>5.452726478917535e-28</v>
+        <v>5.169264836306927e-28</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>5.328840616135947e-28</v>
+        <v>5.050188375330584e-28</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>5.232402498154842e-28</v>
+        <v>4.958453047013462e-28</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>5.1583805302195e-28</v>
+        <v>4.889031760587035e-28</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>5.101743117575199e-28</v>
+        <v>4.836897425282767e-28</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>5.057458665467218e-28</v>
+        <v>4.797022950332126e-28</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>5.02049557914084e-28</v>
+        <v>4.764381244966584e-28</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.985822263841341e-28</v>
+        <v>4.733945218417604e-28</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.948407124814e-28</v>
+        <v>4.700687779916658e-28</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.903218567304098e-28</v>
+        <v>4.65958183869521e-28</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.845224996556914e-28</v>
+        <v>4.605600303984733e-28</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.769394817817726e-28</v>
+        <v>4.533716085016692e-28</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.670696436331813e-28</v>
+        <v>4.438902091022553e-28</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.544098257344525e-28</v>
+        <v>4.316131231233854e-28</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.384632964289163e-28</v>
+        <v>4.160441092444551e-28</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.191565209760501e-28</v>
+        <v>3.971127524761418e-28</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.970944597072997e-28</v>
+        <v>3.754313485395878e-28</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.729431543992538e-28</v>
+        <v>3.516736541134764e-28</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.473686468285018e-28</v>
+        <v>3.265134258764912e-28</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.210369787716328e-28</v>
+        <v>3.00624420507316e-28</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.946141920052358e-28</v>
+        <v>2.746803946846339e-28</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.687663283058999e-28</v>
+        <v>2.493551050871287e-28</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.441594294502143e-28</v>
+        <v>2.253223083934837e-28</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.21459537214768e-28</v>
+        <v>2.032557612823825e-28</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.013326933761502e-28</v>
+        <v>1.838292204325085e-28</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.8444493971095e-28</v>
+        <v>1.677164425225454e-28</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.714623179957563e-28</v>
+        <v>1.555911842311765e-28</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.630508700071584e-28</v>
+        <v>1.481272022370854e-28</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.598701416729583e-28</v>
+        <v>1.459916221269433e-28</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.6209896170858e-28</v>
+        <v>1.493608437683242e-28</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>1.691134212604408e-28</v>
+        <v>1.57591816506428e-28</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>1.802133547978114e-28</v>
+        <v>1.699636453493587e-28</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>1.946985967899528e-28</v>
+        <v>1.857554353052094e-28</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.118689817061287e-28</v>
+        <v>2.042462913820759e-28</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>2.310243440156025e-28</v>
+        <v>2.247153185880544e-28</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>2.514645181876377e-28</v>
+        <v>2.464416219312406e-28</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.724893386914979e-28</v>
+        <v>2.687043064197303e-28</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>2.933986399964465e-28</v>
+        <v>2.907824770616196e-28</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>3.134922565717471e-28</v>
+        <v>3.119552388650043e-28</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>3.32070022886663e-28</v>
+        <v>3.315016968379803e-28</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>3.484317734104579e-28</v>
+        <v>3.487009559886435e-28</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>3.618773426123953e-28</v>
+        <v>3.628321213250899e-28</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>3.717244432333756e-28</v>
+        <v>3.731928054904029e-28</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>3.777494358551121e-28</v>
+        <v>3.795554146087158e-28</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>3.802153480378638e-28</v>
+        <v>3.821961537721151e-28</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>3.794086956186428e-28</v>
+        <v>3.814155432000925e-28</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>3.756159944344608e-28</v>
+        <v>3.775141031121395e-28</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>3.691237603223292e-28</v>
+        <v>3.707923537277469e-28</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>3.602185091192604e-28</v>
+        <v>3.615508152664067e-28</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>3.49186756662266e-28</v>
+        <v>3.500900079476103e-28</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>3.363150187883576e-28</v>
+        <v>3.367104519908489e-28</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>3.218898113345473e-28</v>
+        <v>3.217126676156141e-28</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>3.061976501378467e-28</v>
+        <v>3.053971750413971e-28</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>2.895250510352677e-28</v>
+        <v>2.880644944876896e-28</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>2.72158529863822e-28</v>
+        <v>2.700151461739827e-28</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>2.543846024605215e-28</v>
+        <v>2.515496503197681e-28</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>2.364897846623781e-28</v>
+        <v>2.329685271445372e-28</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>2.187605923064204e-28</v>
+        <v>2.145722968677988e-28</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>2.014835412296094e-28</v>
+        <v>1.966614797089917e-28</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.849451472690233e-28</v>
+        <v>1.795365958876762e-28</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.694319262616247e-28</v>
+        <v>1.634981656232928e-28</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>1.552100652768514e-28</v>
+        <v>1.488253249653873e-28</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>1.423336451633565e-28</v>
+        <v>1.355740918893208e-28</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>1.307305887806043e-28</v>
+        <v>1.236677766757587e-28</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.203271481762246e-28</v>
+        <v>1.130279320505081e-28</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.110495753978471e-28</v>
+        <v>1.035761107393759e-28</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.028241224931016e-28</v>
+        <v>9.523386546816915e-29</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>9.557704150961792e-29</v>
+        <v>8.792274896269484e-29</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>8.923458449502567e-29</v>
+        <v>8.156431394875995e-29</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>8.37230034969547e-29</v>
+        <v>7.608011315217146e-29</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>7.896855056303475e-29</v>
+        <v>7.139169929873641e-29</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>7.489747774089559e-29</v>
+        <v>6.742062511426179e-29</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>7.143603707816694e-29</v>
+        <v>6.408844332455457e-29</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>6.851048062247863e-29</v>
+        <v>6.131670665542177e-29</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>6.604706042146033e-29</v>
+        <v>5.90269678326704e-29</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>6.397202852274187e-29</v>
+        <v>5.714077958210742e-29</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>6.221163697395295e-29</v>
+        <v>5.557969462953985e-29</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>6.069213782272338e-29</v>
+        <v>5.426526570077468e-29</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>5.933978311668289e-29</v>
+        <v>5.311904552161891e-29</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>5.808091932834438e-29</v>
+        <v>5.20626873535023e-29</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>5.686270555839155e-29</v>
+        <v>5.104000398259866e-29</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>5.567913302783174e-29</v>
+        <v>5.004467107259116e-29</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>5.453059154362093e-29</v>
+        <v>4.907717695985822e-29</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>5.341747091271502e-29</v>
+        <v>4.81380099807782e-29</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>5.234016094207e-29</v>
+        <v>4.722765847172952e-29</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>5.129905143864177e-29</v>
+        <v>4.634661076909055e-29</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>5.029453220938633e-29</v>
+        <v>4.54953552092397e-29</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>4.932699306125957e-29</v>
+        <v>4.467438012855537e-29</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>4.839682380121748e-29</v>
+        <v>4.388417386341593e-29</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>4.750441423621597e-29</v>
+        <v>4.31252247501998e-29</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>4.665015417321101e-29</v>
+        <v>4.239802112528535e-29</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>4.583443341915853e-29</v>
+        <v>4.170305132505097e-29</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>4.505764178101446e-29</v>
+        <v>4.104080368587506e-29</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>4.432016906573478e-29</v>
+        <v>4.041176654413602e-29</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>4.362240508027605e-29</v>
+        <v>3.98164282362128e-29</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>4.296473963159228e-29</v>
+        <v>3.92552770984821e-29</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>4.234756252664195e-29</v>
+        <v>3.87288014673245e-29</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>4.177126357237915e-29</v>
+        <v>3.82374896791168e-29</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>4.123623257576045e-29</v>
+        <v>3.77818300702379e-29</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>4.074285934374177e-29</v>
+        <v>3.736231097706624e-29</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>4.029153368327909e-29</v>
+        <v>3.69794207359802e-29</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>3.988264540132832e-29</v>
+        <v>3.663364768335814e-29</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>3.951658430484543e-29</v>
+        <v>3.632548015557849e-29</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>3.919374020078636e-29</v>
+        <v>3.605540648901962e-29</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>3.891450289610704e-29</v>
+        <v>3.582391502005993e-29</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>3.867926219776342e-29</v>
+        <v>3.56314940850778e-29</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>3.848840791271145e-29</v>
+        <v>3.547863202045164e-29</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>3.834232984790708e-29</v>
+        <v>3.536581716255983e-29</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>3.824141781030625e-29</v>
+        <v>3.529353784778078e-29</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>3.81860616068649e-29</v>
+        <v>3.526228241249287e-29</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>3.817665104453897e-29</v>
+        <v>3.527253919307449e-29</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>3.821357593028441e-29</v>
+        <v>3.532479652590402e-29</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>3.829722607105717e-29</v>
+        <v>3.541954274735989e-29</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>3.842799127381318e-29</v>
+        <v>3.555726619382045e-29</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>3.860626134550841e-29</v>
+        <v>3.573845520166412e-29</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>3.883242609309878e-29</v>
+        <v>3.596359810726928e-29</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>3.910687532354025e-29</v>
+        <v>3.623318324701434e-29</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>3.94309439832617e-29</v>
+        <v>3.654870751993113e-29</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>3.981477206552287e-29</v>
+        <v>3.692106373078787e-29</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>4.027329086783014e-29</v>
+        <v>3.736625750702373e-29</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>4.082147965592132e-29</v>
+        <v>3.790034566319703e-29</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>4.147431769553417e-29</v>
+        <v>3.853938501386598e-29</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>4.224678425240651e-29</v>
+        <v>3.929943237358889e-29</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>4.315385859227612e-29</v>
+        <v>4.019654455692401e-29</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>4.421051998088079e-29</v>
+        <v>4.124677837842963e-29</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>4.543174768395833e-29</v>
+        <v>4.246619065266401e-29</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>4.68325209672465e-29</v>
+        <v>4.387083819418541e-29</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>4.842781909648311e-29</v>
+        <v>4.547677781755212e-29</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>5.023262133740595e-29</v>
+        <v>4.73000663373224e-29</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>5.226190695575284e-29</v>
+        <v>4.935676056805453e-29</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>5.453065521726152e-29</v>
+        <v>5.166291732430677e-29</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>5.705384538766724e-29</v>
+        <v>5.423459342063475e-29</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>5.984645673271552e-29</v>
+        <v>5.708784567160466e-29</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>6.29234685181333e-29</v>
+        <v>6.023873089176367e-29</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>6.629986000966687e-29</v>
+        <v>6.370330589567875e-29</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>6.999061047305121e-29</v>
+        <v>6.749762749790529e-29</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>7.401069917402411e-29</v>
+        <v>7.163775251300155e-29</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>7.837510537832337e-29</v>
+        <v>7.613973775552582e-29</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>8.309880835168675e-29</v>
+        <v>8.101964004003634e-29</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>8.819678735985206e-29</v>
+        <v>8.629351618109139e-29</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>9.368387362684085e-29</v>
+        <v>9.197726741795834e-29</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>9.95362320112627e-29</v>
+        <v>9.804616096323068e-29</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>1.056398735673313e-28</v>
+        <v>1.043807224613833e-28</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>1.118679853614114e-28</v>
+        <v>1.10848000979541e-28</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>1.180937544598677e-28</v>
+        <v>1.173150455848284e-28</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>1.24190367929065e-28</v>
+        <v>1.236489053443705e-28</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>1.300310128353678e-28</v>
+        <v>1.297166293252919e-28</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>1.354888762451409e-28</v>
+        <v>1.353852665947173e-28</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>1.40437145224749e-28</v>
+        <v>1.405218662197716e-28</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>1.447490068405569e-28</v>
+        <v>1.449934772675795e-28</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>1.482976481589291e-28</v>
+        <v>1.486671488052657e-28</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>1.509562562462304e-28</v>
+        <v>1.514099298999551e-28</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>1.525980181688255e-28</v>
+        <v>1.530888696187723e-28</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>1.530961209930791e-28</v>
+        <v>1.535710170288421e-28</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.523261336061683e-28</v>
+        <v>1.527259423098312e-28</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.502856729835302e-28</v>
+        <v>1.505524012478231e-28</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.471504211511712e-28</v>
+        <v>1.472376281365731e-28</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.431101488794643e-28</v>
+        <v>1.429837699408224e-28</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.38354626938783e-28</v>
+        <v>1.379929736253122e-28</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.330736260995002e-28</v>
+        <v>1.324673861547837e-28</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.274569171319892e-28</v>
+        <v>1.26609154493978e-28</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.216942708066232e-28</v>
+        <v>1.206204256076365e-28</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.159754578937754e-28</v>
+        <v>1.147033464605005e-28</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>1.10490249163819e-28</v>
+        <v>1.090600640173109e-28</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>1.054080011178153e-28</v>
+        <v>1.038706964746833e-28</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>1.007590765506607e-28</v>
+        <v>9.916537575848817e-29</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>9.651590390560813e-29</v>
+        <v>9.491171760166357e-29</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>9.265071983065755e-29</v>
+        <v>9.107713077342564e-29</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>8.913576097380884e-29</v>
+        <v>8.762902404299059e-29</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>8.594326398306198e-29</v>
+        <v>8.45348061795746e-29</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>8.304546550641954e-29</v>
+        <v>8.176188595239636e-29</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>8.041460219187591e-29</v>
+        <v>7.927767213066675e-29</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>7.802291068743389e-29</v>
+        <v>7.70495734836047e-29</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>7.584262764109352e-29</v>
+        <v>7.504499878042648e-29</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>7.384598970085465e-29</v>
+        <v>7.32313567903482e-29</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>7.200523351471725e-29</v>
+        <v>7.157605628258606e-29</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>7.029259573068125e-29</v>
+        <v>7.004650602635624e-29</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>6.868031299674658e-29</v>
+        <v>6.86101147908749e-29</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>6.714062196091318e-29</v>
+        <v>6.723429134535823e-29</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>6.564575927118096e-29</v>
+        <v>6.588644445902238e-29</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>6.41679615755499e-29</v>
+        <v>6.453398290108357e-29</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>6.26794655220199e-29</v>
+        <v>6.314431544075794e-29</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>6.1153029645881e-29</v>
+        <v>6.168546794682513e-29</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>5.957957662941943e-29</v>
+        <v>6.014694427266861e-29</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>5.797246479185446e-29</v>
+        <v>5.854477702992985e-29</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>5.634644060102071e-29</v>
+        <v>5.689664023045456e-29</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>5.471625052475281e-29</v>
+        <v>5.522020788608846e-29</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>5.309664103088545e-29</v>
+        <v>5.353315400867725e-29</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>5.150235858725321e-29</v>
+        <v>5.185315261006664e-29</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>4.994814966169076e-29</v>
+        <v>5.019787770210233e-29</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>4.844876072203273e-29</v>
+        <v>4.858500329663002e-29</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>4.701893823611377e-29</v>
+        <v>4.703220340549545e-29</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>4.567342867176851e-29</v>
+        <v>4.555715204054429e-29</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>4.442697849683161e-29</v>
+        <v>4.417752321362229e-29</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>4.329106279572487e-29</v>
+        <v>4.290758466592246e-29</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>4.226084492550902e-29</v>
+        <v>4.174461983836102e-29</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>4.132641427459453e-29</v>
+        <v>4.06806289909105e-29</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>4.047785861730372e-29</v>
+        <v>3.970761070290248e-29</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>3.970526572795886e-29</v>
+        <v>3.881756355366848e-29</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>3.899872338088227e-29</v>
+        <v>3.800248612254006e-29</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>3.834831935039623e-29</v>
+        <v>3.725437698884876e-29</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>3.774437055882368e-29</v>
+        <v>3.656539477725692e-29</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>3.718148939262911e-29</v>
+        <v>3.593069822142851e-29</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>3.665810312813947e-29</v>
+        <v>3.534811051340493e-29</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>3.617277165047834e-29</v>
+        <v>3.481554746405318e-29</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>3.572405484476929e-29</v>
+        <v>3.433092488424031e-29</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>3.531051259613597e-29</v>
+        <v>3.389215858483337e-29</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>3.493070478970227e-29</v>
+        <v>3.349716437669976e-29</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>3.458319131059108e-29</v>
+        <v>3.314385807070575e-29</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>3.426653204392637e-29</v>
+        <v>3.28301554777188e-29</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>3.397928687483173e-29</v>
+        <v>3.255397240860593e-29</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>3.372001568843077e-29</v>
+        <v>3.231322467423422e-29</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>3.348727836984707e-29</v>
+        <v>3.210582808547066e-29</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>3.327963480420422e-29</v>
+        <v>3.192969845318233e-29</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>3.309564487662583e-29</v>
+        <v>3.178275158823624e-29</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>3.293386847223547e-29</v>
+        <v>3.166290330149947e-29</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>3.279286547615675e-29</v>
+        <v>3.156806940383903e-29</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>3.267119577351326e-29</v>
+        <v>3.149616570612196e-29</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>3.256741924942861e-29</v>
+        <v>3.144510801921533e-29</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>3.248009578902637e-29</v>
+        <v>3.141281215398615e-29</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>3.240778527743015e-29</v>
+        <v>3.139719392130149e-29</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>3.234904759976352e-29</v>
+        <v>3.139616913202837e-29</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>3.230244264115011e-29</v>
+        <v>3.140765359703383e-29</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>3.226653028671349e-29</v>
+        <v>3.142956312718493e-29</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>3.223987042157726e-29</v>
+        <v>3.145981353334868e-29</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>3.2221022930865e-29</v>
+        <v>3.149632062639215e-29</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>3.220854769970034e-29</v>
+        <v>3.153700021718238e-29</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>3.220100461320683e-29</v>
+        <v>3.157976811658641e-29</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>3.219695355650811e-29</v>
+        <v>3.162254013547127e-29</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>3.219505484004831e-29</v>
+        <v>3.166336482896895e-29</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>3.219542150278264e-29</v>
+        <v>3.170221099879135e-29</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>3.219925989719873e-29</v>
+        <v>3.174049261108091e-29</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>3.220780309275359e-29</v>
+        <v>3.177965894702263e-29</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>3.222228415890433e-29</v>
+        <v>3.182115928780154e-29</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>3.224393616510798e-29</v>
+        <v>3.18664429146026e-29</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>3.227399218082159e-29</v>
+        <v>3.191695910861085e-29</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>3.231368527550223e-29</v>
+        <v>3.197415715101127e-29</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>3.236424851860695e-29</v>
+        <v>3.203948632298887e-29</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>3.24269149795928e-29</v>
+        <v>3.211439590572866e-29</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>3.250291772791684e-29</v>
+        <v>3.220033518041563e-29</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>3.259348983303611e-29</v>
+        <v>3.229875342823478e-29</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>3.269986436440769e-29</v>
+        <v>3.241109993037113e-29</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>3.282327439148862e-29</v>
+        <v>3.253882396800967e-29</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>3.296495298373596e-29</v>
+        <v>3.26833748223354e-29</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>3.312613321060661e-29</v>
+        <v>3.284620177453317e-29</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>3.330804814155792e-29</v>
+        <v>3.302875410578828e-29</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>3.35119308460468e-29</v>
+        <v>3.32324810972856e-29</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>3.373901439353031e-29</v>
+        <v>3.345883203021013e-29</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>3.399053185346551e-29</v>
+        <v>3.370925618574686e-29</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>3.426771629530944e-29</v>
+        <v>3.398520284508079e-29</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>3.457180078851918e-29</v>
+        <v>3.428812128939695e-29</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>3.490401840255177e-29</v>
+        <v>3.461946079988033e-29</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>3.526560220686425e-29</v>
+        <v>3.498067065771592e-29</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>3.56577852709137e-29</v>
+        <v>3.537320014408872e-29</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>3.608180066415718e-29</v>
+        <v>3.579849854018377e-29</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>3.653888145605171e-29</v>
+        <v>3.625801512718603e-29</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>3.703026071605438e-29</v>
+        <v>3.675319918628052e-29</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>3.755717151362223e-29</v>
+        <v>3.728549999865224e-29</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>3.812084691821232e-29</v>
+        <v>3.785636684548619e-29</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>3.87225199992817e-29</v>
+        <v>3.846724900796739e-29</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>3.936342382628744e-29</v>
+        <v>3.911959576728083e-29</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>4.004479146868658e-29</v>
+        <v>3.981485640461152e-29</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>4.076785599593616e-29</v>
+        <v>4.055448020114444e-29</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>4.153385047749326e-29</v>
+        <v>4.133991643806461e-29</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>4.234400798281494e-29</v>
+        <v>4.217261439655703e-29</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>4.319956158135825e-29</v>
+        <v>4.30540233578067e-29</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>4.410171832333753e-29</v>
+        <v>4.398556202087549e-29</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>4.505006579410973e-29</v>
+        <v>4.496674562152064e-29</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>4.604164729331763e-29</v>
+        <v>4.599409892956168e-29</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>4.707328322089321e-29</v>
+        <v>4.706388472616297e-29</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>4.81417939767684e-29</v>
+        <v>4.817236579248884e-29</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>4.924399996087517e-29</v>
+        <v>4.931580490970363e-29</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>5.037672157314548e-29</v>
+        <v>5.049046485897165e-29</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>5.153677921351126e-29</v>
+        <v>5.169260842145725e-29</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>5.272099328190447e-29</v>
+        <v>5.291849837832473e-29</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>5.39261841782571e-29</v>
+        <v>5.416439751073847e-29</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>5.514917230250108e-29</v>
+        <v>5.54265685998628e-29</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>5.638677805456834e-29</v>
+        <v>5.670127442686199e-29</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>5.763582183439087e-29</v>
+        <v>5.798477777290043e-29</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>5.889312404190061e-29</v>
+        <v>5.927334141914243e-29</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>6.015550507702953e-29</v>
+        <v>6.056322814675233e-29</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>6.141978533970836e-29</v>
+        <v>6.18507007368932e-29</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>6.268278522987147e-29</v>
+        <v>6.313202197073189e-29</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>6.394132514744962e-29</v>
+        <v>6.440345462943148e-29</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>6.519222549237477e-29</v>
+        <v>6.566126149415629e-29</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>6.643245347009483e-29</v>
+        <v>6.690187348366875e-29</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>6.766319958714173e-29</v>
+        <v>6.812655849915375e-29</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>6.889040967432117e-29</v>
+        <v>6.9342030754874e-29</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>7.01202832423706e-29</v>
+        <v>7.055529500686189e-29</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>7.135901980202734e-29</v>
+        <v>7.177335601114963e-29</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>7.261281886402884e-29</v>
+        <v>7.300321852376964e-29</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>7.388787993911242e-29</v>
+        <v>7.425188730075418e-29</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>7.519040253801555e-29</v>
+        <v>7.552636709813558e-29</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>7.652658617147553e-29</v>
+        <v>7.683366267194615e-29</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>7.790263035022978e-29</v>
+        <v>7.818077877821818e-29</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>7.93247345850157e-29</v>
+        <v>7.957472017298404e-29</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>8.079909838657068e-29</v>
+        <v>8.1022491612276e-29</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>8.233192126563208e-29</v>
+        <v>8.25310978521264e-29</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>8.39294027329373e-29</v>
+        <v>8.410754364856751e-29</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>8.559774229922374e-29</v>
+        <v>8.57588337576317e-29</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>8.73427985562937e-29</v>
+        <v>8.74916176358158e-29</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>8.915804310568023e-29</v>
+        <v>8.929963524285463e-29</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>9.102134033963399e-29</v>
+        <v>9.11603609878273e-29</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>9.290955888720365e-29</v>
+        <v>9.305023151345069e-29</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>9.479956737743795e-29</v>
+        <v>9.494568346244168e-29</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>9.66682344393856e-29</v>
+        <v>9.682315347751716e-29</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>9.849242870209539e-29</v>
+        <v>9.865907820139411e-29</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>1.00249018794616e-28</v>
+        <v>1.004298942767893e-28</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.019148733459961e-28</v>
+        <v>1.021120383464197e-28</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.034668609852845e-28</v>
+        <v>1.036819470530021e-28</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.048822255836202e-28</v>
+        <v>1.051164393420611e-28</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>1.061516498196967e-28</v>
+        <v>1.06406025837083e-28</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.072826369319758e-28</v>
+        <v>1.075583542242402e-28</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.082837524510322e-28</v>
+        <v>1.085821544703653e-28</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.09163561907441e-28</v>
+        <v>1.094861565422914e-28</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.099306308317769e-28</v>
+        <v>1.102790904068508e-28</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.105935247546149e-28</v>
+        <v>1.109696860308767e-28</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.111608092065299e-28</v>
+        <v>1.115666733812015e-28</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.116410497180962e-28</v>
+        <v>1.120787824246577e-28</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.120428118198898e-28</v>
+        <v>1.12514743128079e-28</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.123746610424849e-28</v>
+        <v>1.128832854582975e-28</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.126451629164564e-28</v>
+        <v>1.131931393821461e-28</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.128628829723793e-28</v>
+        <v>1.134530348664575e-28</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.130337874201696e-28</v>
+        <v>1.136687959225661e-28</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.131495205836137e-28</v>
+        <v>1.138302351614414e-28</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.131968206682639e-28</v>
+        <v>1.139216803142979e-28</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.13162421538591e-28</v>
+        <v>1.13927454259163e-28</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.130330570590656e-28</v>
+        <v>1.138318798740643e-28</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.127954610941588e-28</v>
+        <v>1.136192800370291e-28</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.124363675083411e-28</v>
+        <v>1.132739776260847e-28</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.119425101660835e-28</v>
+        <v>1.127802955192588e-28</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.113006229318566e-28</v>
+        <v>1.121225565945785e-28</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.104974396701312e-28</v>
+        <v>1.112850837300715e-28</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.095196944003658e-28</v>
+        <v>1.102522003640125e-28</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.083551835824386e-28</v>
+        <v>1.09012070431479e-28</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.06995302954691e-28</v>
+        <v>1.075658684958843e-28</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.054322097098456e-28</v>
+        <v>1.059175216167454e-28</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.03658061040625e-28</v>
+        <v>1.040709568535792e-28</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.016650141397517e-28</v>
+        <v>1.020301012659028e-28</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>9.944641629162369e-29</v>
+        <v>9.979969368175218e-29</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>9.703076205777489e-29</v>
+        <v>9.740844709325424e-29</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>9.448664680816978e-29</v>
+        <v>9.491242748940612e-29</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>9.188485211277925e-29</v>
+        <v>9.236919207906493e-29</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>8.929615954157425e-29</v>
+        <v>8.983629807108779e-29</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>8.678220386004491e-29</v>
+        <v>8.736380341073603e-29</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>8.435057814623211e-29</v>
+        <v>8.495745845364267e-29</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>8.198909909304725e-29</v>
+        <v>8.260679933271751e-29</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>7.968555384577265e-29</v>
+        <v>8.030133795541971e-29</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>7.742772954969061e-29</v>
+        <v>7.803058622920851e-29</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>7.52034133500834e-29</v>
+        <v>7.578405606154315e-29</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>7.300039239223338e-29</v>
+        <v>7.355125935988284e-29</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>7.080645382142283e-29</v>
+        <v>7.132170803168682e-29</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>6.860938478293408e-29</v>
+        <v>6.908491398441433e-29</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>6.639697242205154e-29</v>
+        <v>6.683038912552675e-29</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>6.415700388405106e-29</v>
+        <v>6.454764536247672e-29</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>6.187943820648871e-29</v>
+        <v>6.222827487656992e-29</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>5.957297951638185e-29</v>
+        <v>5.988182420155164e-29</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>5.725591692682835e-29</v>
+        <v>5.752702052717853e-29</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>5.49466167954366e-29</v>
+        <v>5.518266502925851e-29</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.266344547982399e-29</v>
+        <v>5.286755888360859e-29</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>5.042476933760559e-29</v>
+        <v>5.060050326604349e-29</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.824895472639655e-29</v>
+        <v>4.840029935237793e-29</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>4.615436800381199e-29</v>
+        <v>4.628574831842666e-29</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>4.4159375527467e-29</v>
+        <v>4.427565134000439e-29</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>4.228202388408224e-29</v>
+        <v>4.238847555917121e-29</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>4.052857112431639e-29</v>
+        <v>4.063037377346568e-29</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>3.889032326799115e-29</v>
+        <v>3.899187983859549e-29</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>3.735762263581276e-29</v>
+        <v>3.746252092692266e-29</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>3.592081154848748e-29</v>
+        <v>3.603182421080927e-29</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>3.457023232672154e-29</v>
+        <v>3.468931686261737e-29</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>3.329622729122119e-29</v>
+        <v>3.342452605470901e-29</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>3.208913876269268e-29</v>
+        <v>3.222697895944624e-29</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>3.093930906184222e-29</v>
+        <v>3.10862027491911e-29</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>2.983708050937608e-29</v>
+        <v>2.999172459630564e-29</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.87727954260005e-29</v>
+        <v>2.893307167315193e-29</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>2.773679613242171e-29</v>
+        <v>2.789977115209201e-29</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>2.671942494934595e-29</v>
+        <v>2.688135020548791e-29</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>2.571102419747949e-29</v>
+        <v>2.586733600570172e-29</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>2.470194508910933e-29</v>
+        <v>2.484726542991463e-29</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>2.369087195489915e-29</v>
+        <v>2.381977063418828e-29</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>2.270028377814552e-29</v>
+        <v>2.28094547246869e-29</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>2.175687905958845e-29</v>
+        <v>2.184552624891785e-29</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>2.088735629996796e-29</v>
+        <v>2.095719375438848e-29</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>2.011841400002408e-29</v>
+        <v>2.017366578860614e-29</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.947675066049682e-29</v>
+        <v>1.95241508990782e-29</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.898906478212618e-29</v>
+        <v>1.903785763331201e-29</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.866065920212115e-29</v>
+        <v>1.872077676266683e-29</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.838767617440312e-29</v>
+        <v>1.846044206448122e-29</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.805675454846616e-29</v>
+        <v>1.81339818365709e-29</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.766928168676164e-29</v>
+        <v>1.774262318014564e-29</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>1.725927080625455e-29</v>
+        <v>1.732287758611668e-29</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>1.686073739994716e-29</v>
+        <v>1.691125900689677e-29</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.650769696084443e-29</v>
+        <v>1.654428139490141e-29</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.623416498194848e-29</v>
+        <v>1.62584587025432e-29</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.607415695626381e-29</v>
+        <v>1.609030488223716e-29</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>1.606028887721664e-29</v>
+        <v>1.607482900066134e-29</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>1.619015033526263e-29</v>
+        <v>1.620937613725912e-29</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>1.642465136214795e-29</v>
+        <v>1.645184974133658e-29</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.672297163844122e-29</v>
+        <v>1.675829261083011e-29</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.704429084471108e-29</v>
+        <v>1.70847475436761e-29</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.735060384681001e-29</v>
+        <v>1.739052681437551e-29</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.762401728573833e-29</v>
+        <v>1.765829994424882e-29</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.785538730495744e-29</v>
+        <v>1.788089787930575e-29</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.803560595464388e-29</v>
+        <v>1.805119326659941e-29</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.815556528497425e-29</v>
+        <v>1.816205875318294e-29</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.820620332262592e-29</v>
+        <v>1.82064007226227e-29</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.8182074150242e-29</v>
+        <v>1.817977893831342e-29</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.808389482624926e-29</v>
+        <v>1.808227541545742e-29</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.791298361642383e-29</v>
+        <v>1.791441332157011e-29</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.767065878654181e-29</v>
+        <v>1.767671582416686e-29</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.735823860237932e-29</v>
+        <v>1.736970609076306e-29</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.697731819911348e-29</v>
+        <v>1.699421212194727e-29</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.653366046010919e-29</v>
+        <v>1.65556506069952e-29</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.603624942421391e-29</v>
+        <v>1.606298472577086e-29</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.549415273316617e-29</v>
+        <v>1.552526970487989e-29</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.49164380287045e-29</v>
+        <v>1.495156077092789e-29</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.431217295256743e-29</v>
+        <v>1.43509131505205e-29</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.369042514649351e-29</v>
+        <v>1.373238207026336e-29</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.306026225222127e-29</v>
+        <v>1.310502275676207e-29</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>1.243075191148924e-29</v>
+        <v>1.247789043662227e-29</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.181093861047621e-29</v>
+        <v>1.186001727892954e-29</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>1.120720040278751e-29</v>
+        <v>1.125778030976273e-29</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>1.06208080015884e-29</v>
+        <v>1.067247083903178e-29</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>1.005245514475945e-29</v>
+        <v>1.010480564425171e-29</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>9.502835570181184e-30</v>
+        <v>9.55550150293756e-30</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>8.972643015734163e-30</v>
+        <v>9.025275192604332e-30</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>8.462571219298929e-30</v>
+        <v>8.514843490767056e-30</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>7.973313918756487e-30</v>
+        <v>8.024923174941217e-30</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>7.505564851985995e-30</v>
+        <v>7.556231022640442e-30</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>7.060017756869812e-30</v>
+        <v>7.10948381138157e-30</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>6.637366371286753e-30</v>
+        <v>6.685398318677896e-30</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>6.238304433119002e-30</v>
+        <v>6.284691322046076e-30</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>5.863525680245914e-30</v>
+        <v>5.908079598999939e-30</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>5.513723850548429e-30</v>
+        <v>5.556279927054905e-30</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>5.189591605448874e-30</v>
+        <v>5.230008011090503e-30</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>4.891309637606663e-30</v>
+        <v>4.929469405329859e-30</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>4.617729072014373e-30</v>
+        <v>4.653544817897871e-30</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>4.367487992612763e-30</v>
+        <v>4.400902672420266e-30</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>4.139224483342604e-30</v>
+        <v>4.170211392522786e-30</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>3.93157662814466e-30</v>
+        <v>3.960139401831161e-30</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>3.743182510959693e-30</v>
+        <v>3.769355123971125e-30</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>3.572680215728475e-30</v>
+        <v>3.596526982568413e-30</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>3.418707826391766e-30</v>
+        <v>3.44032340124876e-30</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>3.279903426890334e-30</v>
+        <v>3.299412803637898e-30</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>3.154905101164944e-30</v>
+        <v>3.172463613361563e-30</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>3.042350933156362e-30</v>
+        <v>3.058144254045488e-30</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>2.940879006805352e-30</v>
+        <v>2.955123149315409e-30</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>2.849127406052681e-30</v>
+        <v>2.862068722797059e-30</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>2.765814597613169e-30</v>
+        <v>2.777716194875397e-30</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>2.690281882499581e-30</v>
+        <v>2.701318350962547e-30</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>2.622161380896546e-30</v>
+        <v>2.632369642405027e-30</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>2.561086854102126e-30</v>
+        <v>2.570365884287542e-30</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>2.506692063414379e-30</v>
+        <v>2.514802891694797e-30</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>2.458610770131368e-30</v>
+        <v>2.465176479711501e-30</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>2.416476735551153e-30</v>
+        <v>2.420982463422358e-30</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>2.379923720971794e-30</v>
+        <v>2.381716657912077e-30</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>2.348585487691352e-30</v>
+        <v>2.346874878265362e-30</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>2.32152001271934e-30</v>
+        <v>2.315531065220057e-30</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>2.294756071923233e-30</v>
+        <v>2.284539678575168e-30</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>2.263329789057051e-30</v>
+        <v>2.25002786675571e-30</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>2.222276712090526e-30</v>
+        <v>2.20812235631235e-30</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>2.166633286112259e-30</v>
+        <v>2.154950688519841e-30</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>2.099505461464178e-30</v>
+        <v>2.093968776066596e-30</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>2.048997325766654e-30</v>
+        <v>2.051062552025235e-30</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>2.015025204719552e-30</v>
+        <v>2.023142867797847e-30</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.974591054716914e-30</v>
+        <v>1.984076723325123e-30</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>1.916794437422914e-30</v>
+        <v>1.922107209775775e-30</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>1.851241596176781e-30</v>
+        <v>1.84971714190577e-30</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>1.789435380063223e-30</v>
+        <v>1.781631198842498e-30</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.742202160605403e-30</v>
+        <v>1.731701926171204e-30</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.709206577507628e-30</v>
+        <v>1.699391856767393e-30</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.680956117519259e-30</v>
+        <v>1.672357869191907e-30</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.648346086739525e-30</v>
+        <v>1.638799751761294e-30</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.609585877570572e-30</v>
+        <v>1.596823597810296e-30</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.567446888677493e-30</v>
+        <v>1.550714348401721e-30</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.52476853774005e-30</v>
+        <v>1.504848854971252e-30</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.483538876651507e-30</v>
+        <v>1.462306583723078e-30</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.443419483410225e-30</v>
+        <v>1.42262171759941e-30</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.403678169593667e-30</v>
+        <v>1.384728384023156e-30</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.363582746779292e-30</v>
+        <v>1.347560710417224e-30</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.322401026544562e-30</v>
+        <v>1.31005282420452e-30</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.279400820466939e-30</v>
+        <v>1.271138852807953e-30</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.233849940123883e-30</v>
+        <v>1.229752923650431e-30</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.185016197092855e-30</v>
+        <v>1.184829164154861e-30</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>1.132167402951317e-30</v>
+        <v>1.135301701744151e-30</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>1.075155047594023e-30</v>
+        <v>1.080722722439426e-30</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>1.01835316793212e-30</v>
+        <v>1.025433349912072e-30</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>9.682475076057663e-31</v>
+        <v>9.760107999789446e-31</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>9.313357267675526e-31</v>
+        <v>9.390449068851503e-31</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>9.141154855700692e-31</v>
+        <v>9.211255048757967e-31</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>9.230832277552345e-31</v>
+        <v>9.288412178049696e-31</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>9.622796184168655e-31</v>
+        <v>9.663370437886284e-31</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>1.028139110190404e-30</v>
+        <v>1.030189409342311e-30</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.115628009929165e-30</v>
+        <v>1.115513860611372e-30</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>1.219712624486464e-30</v>
+        <v>1.217425943741165e-30</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>1.335359260715617e-30</v>
+        <v>1.331041204877048e-30</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.45753422546994e-30</v>
+        <v>1.451475190164373e-30</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.581203825602747e-30</v>
+        <v>1.573843445748496e-30</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>1.701334367967355e-30</v>
+        <v>1.693261517774773e-30</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>1.813061045088988e-30</v>
+        <v>1.804996788719392e-30</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>1.913412084234876e-30</v>
+        <v>1.906018570216418e-30</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>2.000604469853942e-30</v>
+        <v>1.994364923703732e-30</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>2.072873586417018e-30</v>
+        <v>2.068090453122723e-30</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>2.128454818394427e-30</v>
+        <v>2.125249762414265e-30</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>2.165595087994714e-30</v>
+        <v>2.163909529058761e-30</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>2.183837956713894e-30</v>
+        <v>2.183493284489516e-30</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>2.18519347162616e-30</v>
+        <v>2.186005586905591e-30</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>2.171947967879298e-30</v>
+        <v>2.173740113128641e-30</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.146387780621125e-30</v>
+        <v>2.148990539980353e-30</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>2.110794227984651e-30</v>
+        <v>2.114045607925136e-30</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>2.067077350160643e-30</v>
+        <v>2.070828748445278e-30</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>2.016527199652501e-30</v>
+        <v>2.020653372751918e-30</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>1.960374932753024e-30</v>
+        <v>1.96477494270802e-30</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>1.899851705755014e-30</v>
+        <v>1.904448920176547e-30</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>1.836188674951275e-30</v>
+        <v>1.840930767020465e-30</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>1.770616996634604e-30</v>
+        <v>1.775475945102739e-30</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>1.704295936286739e-30</v>
+        <v>1.709266059632647e-30</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>1.637789696006726e-30</v>
+        <v>1.642871380524669e-30</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.571368608317885e-30</v>
+        <v>1.576560272301466e-30</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.505300927031439e-30</v>
+        <v>1.510598963931552e-30</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.439854905958609e-30</v>
+        <v>1.445253684383444e-30</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.375298798910619e-30</v>
+        <v>1.380790662625656e-30</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.311900859698692e-30</v>
+        <v>1.317476127626705e-30</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.24992934213405e-30</v>
+        <v>1.255576308355106e-30</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.189652500027915e-30</v>
+        <v>1.195357433779375e-30</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.13133858719151e-30</v>
+        <v>1.137085732868026e-30</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.075255857436058e-30</v>
+        <v>1.081027434589577e-30</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.021672564572781e-30</v>
+        <v>1.027448767912541e-30</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>9.70843004297094e-31</v>
+        <v>9.766021335730071e-31</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>9.228273262820319e-31</v>
+        <v>9.285475928567211e-31</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>8.77543408935197e-31</v>
+        <v>8.832042596498492e-31</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>8.349058628347139e-31</v>
+        <v>8.404880104169635e-31</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>7.948292985587076e-31</v>
+        <v>8.003147216226349e-31</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>7.572283266853023e-31</v>
+        <v>7.62600269731435e-31</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>7.220175577926229e-31</v>
+        <v>7.272605312079345e-31</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>6.891116024587937e-31</v>
+        <v>6.942113825167053e-31</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>6.584250712619395e-31</v>
+        <v>6.633687001223183e-31</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>6.298725747801847e-31</v>
+        <v>6.346483604893447e-31</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>6.033687235916784e-31</v>
+        <v>6.079662400823808e-31</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>5.788281282744716e-31</v>
+        <v>5.832382153659233e-31</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>5.561653994067835e-31</v>
+        <v>5.603801628046391e-31</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>5.352951475666512e-31</v>
+        <v>5.393079588630113e-31</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>5.161319833322799e-31</v>
+        <v>5.199374800056924e-31</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>4.985905172817364e-31</v>
+        <v>5.021846026971953e-31</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>4.825853599931644e-31</v>
+        <v>4.859652034021106e-31</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>4.680311220446886e-31</v>
+        <v>4.711951585850096e-31</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>4.548424140144334e-31</v>
+        <v>4.577903447104638e-31</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>4.429338464805236e-31</v>
+        <v>4.456666382430443e-31</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>4.322200300210836e-31</v>
+        <v>4.347399156473222e-31</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>4.226155752142381e-31</v>
+        <v>4.249260533878692e-31</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>4.140350926381116e-31</v>
+        <v>4.161409279292561e-31</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>4.063931928708288e-31</v>
+        <v>4.083004157360546e-31</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>3.996044864905141e-31</v>
+        <v>4.013203932728357e-31</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>3.935835840752921e-31</v>
+        <v>3.951167370041707e-31</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>3.882450962032875e-31</v>
+        <v>3.896053233946308e-31</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>3.835036334526248e-31</v>
+        <v>3.847020289087875e-31</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>3.792738064014287e-31</v>
+        <v>3.803227300112119e-31</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>3.754702256278235e-31</v>
+        <v>3.763833031664753e-31</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>3.72007501709934e-31</v>
+        <v>3.72799624839149e-31</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>3.688002452258846e-31</v>
+        <v>3.694875714938042e-31</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>3.657630667538003e-31</v>
+        <v>3.663630195950123e-31</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>3.628105768718051e-31</v>
+        <v>3.633418456073444e-31</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>3.59857386158024e-31</v>
+        <v>3.603399259953719e-31</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>3.568181051905814e-31</v>
+        <v>3.57273137223666e-31</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>3.536073445476019e-31</v>
+        <v>3.54057355756798e-31</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>3.501400945758802e-31</v>
+        <v>3.506088275627698e-31</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>3.463796856766971e-31</v>
+        <v>3.468908320206229e-31</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>3.423846444636376e-31</v>
+        <v>3.429592715448998e-31</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>3.382246204365414e-31</v>
+        <v>3.388808707820731e-31</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>3.339692630952483e-31</v>
+        <v>3.347223543786155e-31</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>3.296882219395979e-31</v>
+        <v>3.305504469809995e-31</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>3.254511464694303e-31</v>
+        <v>3.264318732356978e-31</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>3.213276861845849e-31</v>
+        <v>3.22433357789183e-31</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>3.173874905849015e-31</v>
+        <v>3.186216252879276e-31</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>3.137002091702198e-31</v>
+        <v>3.150634003784044e-31</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>3.103354914403829e-31</v>
+        <v>3.118254077070889e-31</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>3.07362986895221e-31</v>
+        <v>3.089743719204447e-31</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>3.048523450345853e-31</v>
+        <v>3.065770176649556e-31</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>3.028732153583061e-31</v>
+        <v>3.047000695870849e-31</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>3.014952473662305e-31</v>
+        <v>3.034102523333123e-31</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>3.007880905581933e-31</v>
+        <v>3.02774290550106e-31</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>3.008213944340361e-31</v>
+        <v>3.0285890888394e-31</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>3.016648084935985e-31</v>
+        <v>3.03730831981287e-31</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>3.033879822367203e-31</v>
+        <v>3.054567844886196e-31</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>3.060605651632411e-31</v>
+        <v>3.081034910524104e-31</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>3.097522067730008e-31</v>
+        <v>3.11737676319132e-31</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>3.145325565658391e-31</v>
+        <v>3.16426064935257e-31</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>3.204712640415957e-31</v>
+        <v>3.22235381547258e-31</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>3.276379787001103e-31</v>
+        <v>3.292323508016078e-31</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>3.361023500412228e-31</v>
+        <v>3.374836973447788e-31</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>3.459340275647728e-31</v>
+        <v>3.470561458232437e-31</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>3.572026607706e-31</v>
+        <v>3.580164208834751e-31</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>3.699778991585443e-31</v>
+        <v>3.704312471719456e-31</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>3.843130012542407e-31</v>
+        <v>3.84352634591251e-31</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>4.000807888826961e-31</v>
+        <v>3.99670608783466e-31</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>4.170422998531344e-31</v>
+        <v>4.161748430173868e-31</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>4.349569061661417e-31</v>
+        <v>4.336535151078393e-31</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>4.535839798223046e-31</v>
+        <v>4.518948028696494e-31</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>4.726828928222093e-31</v>
+        <v>4.706868841176433e-31</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>4.920130171664421e-31</v>
+        <v>4.898179366666464e-31</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>5.113337248555893e-31</v>
+        <v>5.090761383314853e-31</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>5.304043878902374e-31</v>
+        <v>5.282496669269852e-31</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>5.489843782709723e-31</v>
+        <v>5.471267002679726e-31</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>5.668396094320779e-31</v>
+        <v>5.654961642949726e-31</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>5.837879448527078e-31</v>
+        <v>5.831529263316172e-31</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>5.996720215466296e-31</v>
+        <v>5.998946869822484e-31</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>6.143346290974928e-31</v>
+        <v>6.155191643002038e-31</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>6.276185570889474e-31</v>
+        <v>6.298240763388223e-31</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>6.393665951046429e-31</v>
+        <v>6.426071411514414e-31</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>6.494215327282286e-31</v>
+        <v>6.536660767913995e-31</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>6.576261595433543e-31</v>
+        <v>6.627986013120341e-31</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>6.638232651336699e-31</v>
+        <v>6.698024327666837e-31</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>6.678556390828219e-31</v>
+        <v>6.744752892086829e-31</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>6.695660709744684e-31</v>
+        <v>6.766148886913798e-31</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>6.687973503922528e-31</v>
+        <v>6.760189492681042e-31</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>6.653922669198214e-31</v>
+        <v>6.724851889921916e-31</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>6.591936101408371e-31</v>
+        <v>6.658113259169943e-31</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>6.500964861453452e-31</v>
+        <v>6.558636867119053e-31</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>6.383199491376746e-31</v>
+        <v>6.429334282447487e-31</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>6.242068929395231e-31</v>
+        <v>6.274741124318801e-31</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>6.08100460065959e-31</v>
+        <v>6.099396273297035e-31</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>5.903437930320506e-31</v>
+        <v>5.907838609946228e-31</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>5.712800343528657e-31</v>
+        <v>5.704607014830416e-31</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>5.51252326543473e-31</v>
+        <v>5.494240368513646e-31</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>5.306038121189406e-31</v>
+        <v>5.281277551559955e-31</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>5.096776335943366e-31</v>
+        <v>5.070257444533381e-31</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>4.888129044670746e-31</v>
+        <v>4.865615712412824e-31</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>4.682613421088001e-31</v>
+        <v>4.669549101653162e-31</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>4.481900996614116e-31</v>
+        <v>4.482087987845764e-31</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>4.287628678210097e-31</v>
+        <v>4.303174045464321e-31</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>4.101433372836945e-31</v>
+        <v>4.132748948982515e-31</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>3.924951987455664e-31</v>
+        <v>3.970754372874036e-31</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>3.759821429027257e-31</v>
+        <v>3.81713199161257e-31</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>3.607678604512726e-31</v>
+        <v>3.671823479671803e-31</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>3.470160420873074e-31</v>
+        <v>3.534770511525423e-31</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>3.348900216927899e-31</v>
+        <v>3.405914633248666e-31</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>3.244368104858543e-31</v>
+        <v>3.285155532571532e-31</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>3.154203143234181e-31</v>
+        <v>3.172291022648929e-31</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>3.07562191141343e-31</v>
+        <v>3.067103713854069e-31</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>3.005840988754908e-31</v>
+        <v>2.969376216560158e-31</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>2.942076954617229e-31</v>
+        <v>2.878891141140403e-31</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>2.881546388359009e-31</v>
+        <v>2.795431097968014e-31</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>2.821465869338863e-31</v>
+        <v>2.718778697416198e-31</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>2.759449984234669e-31</v>
+        <v>2.648739257354093e-31</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>2.696172083871386e-31</v>
+        <v>2.585292607201392e-31</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>2.633723725855418e-31</v>
+        <v>2.528499489273505e-31</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>2.574204235004734e-31</v>
+        <v>2.478421089028252e-31</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>2.519712936137305e-31</v>
+        <v>2.435118591923455e-31</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>2.472349154071101e-31</v>
+        <v>2.39865318341694e-31</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>2.434174122605707e-31</v>
+        <v>2.369084725565011e-31</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>2.406029666613926e-31</v>
+        <v>2.346430714330248e-31</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>2.387310082800906e-31</v>
+        <v>2.330658354003296e-31</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>2.37732553198056e-31</v>
+        <v>2.321731925729708e-31</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>2.375386174966916e-31</v>
+        <v>2.319615710655135e-31</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>2.380802172573942e-31</v>
+        <v>2.324273989925175e-31</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>2.392883685615631e-31</v>
+        <v>2.335671044685448e-31</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>2.41094087490597e-31</v>
+        <v>2.353771156081568e-31</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>2.43428868010704e-31</v>
+        <v>2.378523919251265e-31</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>2.46235596536542e-31</v>
+        <v>2.40952882490437e-31</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>2.49468779321732e-31</v>
+        <v>2.446028271323205e-31</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>2.530834459883752e-31</v>
+        <v>2.487248573011154e-31</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>2.57034626158573e-31</v>
+        <v>2.532416044471603e-31</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>2.612773494544265e-31</v>
+        <v>2.580757000207938e-31</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>2.65766645498037e-31</v>
+        <v>2.631497754723544e-31</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>2.704575439115059e-31</v>
+        <v>2.683864622521806e-31</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>2.753050743169344e-31</v>
+        <v>2.73708391810611e-31</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>2.802635102945318e-31</v>
+        <v>2.790414811585103e-31</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>2.852815918511312e-31</v>
+        <v>2.843356947708448e-31</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>2.903055998222893e-31</v>
+        <v>2.895516840384266e-31</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>2.952818038865399e-31</v>
+        <v>2.946501488375728e-31</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>3.001564737224166e-31</v>
+        <v>2.995917890445997e-31</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>3.048758790084536e-31</v>
+        <v>3.043373045358246e-31</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>3.093862894231846e-31</v>
+        <v>3.088473951875643e-31</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>3.136339746451435e-31</v>
+        <v>3.130827608761355e-31</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>3.175652043528642e-31</v>
+        <v>3.170041014778551e-31</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>3.211258742302792e-31</v>
+        <v>3.205716835381151e-31</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>3.242253670069059e-31</v>
+        <v>3.23703467664613e-31</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>3.267064251149579e-31</v>
+        <v>3.262402013139646e-31</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>3.284046989408751e-31</v>
+        <v>3.280144147045089e-31</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>3.291558388710972e-31</v>
+        <v>3.288586380545845e-31</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>3.287954952920639e-31</v>
+        <v>3.286054015825298e-31</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>3.271593185902148e-31</v>
+        <v>3.270872355066836e-31</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>3.240829591519897e-31</v>
+        <v>3.241366700453845e-31</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>3.194020673638284e-31</v>
+        <v>3.19586235416971e-31</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>3.129523983740724e-31</v>
+        <v>3.132685664647336e-31</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>3.046622270036178e-31</v>
+        <v>3.051086967579604e-31</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>2.947220782490186e-31</v>
+        <v>2.952935672144478e-31</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>2.833686231015681e-31</v>
+        <v>2.84056204422273e-31</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>2.708385325526343e-31</v>
+        <v>2.71629634969587e-31</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>2.57368538897614e-31</v>
+        <v>2.58246946772805e-31</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>2.434079985698177e-31</v>
+        <v>2.443539359393535e-31</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>2.300949329352258e-31</v>
+        <v>2.310853357475698e-31</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>2.187065376545574e-31</v>
+        <v>2.197151087879454e-31</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>2.105200083885182e-31</v>
+        <v>2.115172176509589e-31</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>2.068125308583268e-31</v>
+        <v>2.077656150974939e-31</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>2.081961461186718e-31</v>
+        <v>2.090764631505456e-31</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>2.128162928036917e-31</v>
+        <v>2.136265924997376e-31</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>2.182467652377856e-31</v>
+        <v>2.190275097011113e-31</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>2.221085996532053e-31</v>
+        <v>2.229363995364011e-31</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>2.232499597562735e-31</v>
+        <v>2.241969569911768e-31</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>2.218297131740765e-31</v>
+        <v>2.229201973653614e-31</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>2.18070707482068e-31</v>
+        <v>2.192789982048e-31</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>2.121957902557014e-31</v>
+        <v>2.134462370553377e-31</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>2.044278324853057e-31</v>
+        <v>2.055948194665772e-31</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>1.951502141305486e-31</v>
+        <v>1.960896167460841e-31</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>1.852900787973367e-31</v>
+        <v>1.85945831462865e-31</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>1.758896073733217e-31</v>
+        <v>1.763162486467393e-31</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>1.679801777529737e-31</v>
+        <v>1.683416411857035e-31</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>1.618682334457347e-31</v>
+        <v>1.623567077160081e-31</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>1.56690061676258e-31</v>
+        <v>1.573950182874184e-31</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>1.514756519957603e-31</v>
+        <v>1.523719476766553e-31</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>1.452777970469452e-31</v>
+        <v>1.462294723789816e-31</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>1.377062154085238e-31</v>
+        <v>1.385592696991728e-31</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>1.289462019908764e-31</v>
+        <v>1.296244750021242e-31</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>1.192095863870119e-31</v>
+        <v>1.197191780868472e-31</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>1.087177576615796e-31</v>
+        <v>1.091290322499582e-31</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>9.772702322101828e-32</v>
+        <v>9.810887437005143e-32</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>8.650166107651726e-32</v>
+        <v>8.69065070430117e-32</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>7.530594923926598e-32</v>
+        <v>7.576973286472386e-32</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>6.440416572045382e-32</v>
+        <v>6.494635443107273e-32</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>5.406058853127015e-32</v>
+        <v>5.468417433794314e-32</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>4.453949568290437e-32</v>
+        <v>4.523099518121997e-32</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>3.610516518654592e-32</v>
+        <v>3.683461955678804e-32</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>2.902187505339027e-32</v>
+        <v>2.974285006053835e-32</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>2.35499156510449e-32</v>
+        <v>2.419988085339788e-32</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.967145075350514e-32</v>
+        <v>2.019822820634322e-32</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.691357611450606e-32</v>
+        <v>1.731861548109134e-32</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>1.476435911907172e-32</v>
+        <v>1.510606194979657e-32</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>1.290953670486415e-32</v>
+        <v>1.325944593659391e-32</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>1.13496244172931e-32</v>
+        <v>1.17226584017452e-32</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>1.010767049396512e-32</v>
+        <v>1.046243300673212e-32</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>9.165771325596739e-33</v>
+        <v>9.452764618828704e-33</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>8.487694534783331e-33</v>
+        <v>8.670897994321392e-33</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>8.037121842773854e-33</v>
+        <v>8.094093120735311e-33</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>7.777734970817274e-33</v>
+        <v>7.699609985595594e-33</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>7.673215640162545e-33</v>
+        <v>7.46470857642737e-33</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>7.687267897978932e-33</v>
+        <v>7.366658878932318e-33</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>7.791164278418378e-33</v>
+        <v>7.386120260663634e-33</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>7.974730155404567e-33</v>
+        <v>7.512060573890163e-33</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>8.230581642899061e-33</v>
+        <v>7.734697442949899e-33</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>8.551334854863427e-33</v>
+        <v>8.044248492180845e-33</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>8.929605905259226e-33</v>
+        <v>8.430931345920989e-33</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>9.358010908048021e-33</v>
+        <v>8.884963628508332e-33</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>9.829165977191372e-33</v>
+        <v>9.396562964280866e-33</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>1.033568722665084e-32</v>
+        <v>9.955946977576587e-33</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>1.0870190770388e-32</v>
+        <v>1.05533332927335e-32</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>1.14252927223644e-32</v>
+        <v>1.117893953408958e-32</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>1.199360919654161e-32</v>
+        <v>1.182298332598284e-32</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>1.256775630688119e-32</v>
+        <v>1.247568229275127e-32</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>1.314035016734471e-32</v>
+        <v>1.312725405873286e-32</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>1.370400689189372e-32</v>
+        <v>1.376791624826562e-32</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>1.425134259448979e-32</v>
+        <v>1.438788648568754e-32</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>1.477497338909449e-32</v>
+        <v>1.49773823953366e-32</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.526751538966936e-32</v>
+        <v>1.552662160155082e-32</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.572158471017599e-32</v>
+        <v>1.602582172866818e-32</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.612979746457592e-32</v>
+        <v>1.646520040102669e-32</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.648498433683666e-32</v>
+        <v>1.683531694451684e-32</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.678399820515728e-32</v>
+        <v>1.713313600718729e-32</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.702726414098377e-32</v>
+        <v>1.736131093515544e-32</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.721533138821924e-32</v>
+        <v>1.752269281849272e-32</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.734874919076672e-32</v>
+        <v>1.762013274727051e-32</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.742806679252964e-32</v>
+        <v>1.765648181156041e-32</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.745383343741081e-32</v>
+        <v>1.763459110143372e-32</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.742659836931346e-32</v>
+        <v>1.755731170696179e-32</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.734691083214081e-32</v>
+        <v>1.742749471821633e-32</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.721532006979583e-32</v>
+        <v>1.724799122526847e-32</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.70323753261817e-32</v>
+        <v>1.702165231818973e-32</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.679862584520153e-32</v>
+        <v>1.675132908705157e-32</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.651462087075845e-32</v>
+        <v>1.643987262192539e-32</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.618090964675559e-32</v>
+        <v>1.609013401288262e-32</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.579804141709606e-32</v>
+        <v>1.570496434999469e-32</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>1.536656542568299e-32</v>
+        <v>1.528721472333304e-32</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>1.488703091641949e-32</v>
+        <v>1.483973622296909e-32</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>1.435998713320871e-32</v>
+        <v>1.436537993897427e-32</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>1.378598331995375e-32</v>
+        <v>1.386699696142e-32</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.316556872055773e-32</v>
+        <v>1.334743838037771e-32</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>1.250367338661437e-32</v>
+        <v>1.281029629963282e-32</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>1.186059559293476e-32</v>
+        <v>1.22685283591049e-32</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.133458371050246e-32</v>
+        <v>1.174151145828779e-32</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.1024626722712e-32</v>
+        <v>1.124874777128039e-32</v>
       </c>
     </row>
   </sheetData>
